--- a/generator/data/generated_business_variable_map.xlsx
+++ b/generator/data/generated_business_variable_map.xlsx
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4">
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5">
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6">
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8">
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E10" t="n">
         <v>6</v>
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
@@ -898,7 +898,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1054,7 +1054,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15">
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E15" t="n">
         <v>11</v>
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16">
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E16" t="n">
         <v>12</v>
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18">
@@ -1206,7 +1206,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E18" t="n">
         <v>14</v>
@@ -1230,7 +1230,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19">
@@ -1250,7 +1250,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1274,7 +1274,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20">
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -1318,7 +1318,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21">
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E21" t="n">
         <v>17</v>
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E22" t="n">
         <v>18</v>
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23">
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E23" t="n">
         <v>19</v>
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24">
@@ -1494,7 +1494,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26">
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E26" t="n">
         <v>22</v>
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E27" t="n">
         <v>23</v>
@@ -1626,7 +1626,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E28" t="n">
         <v>24</v>
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E29" t="n">
         <v>25</v>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
@@ -1734,7 +1734,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E30" t="n">
         <v>26</v>
@@ -1758,7 +1758,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31">
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E31" t="n">
         <v>27</v>
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33">
@@ -1866,7 +1866,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E33" t="n">
         <v>29</v>
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34">
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E34" t="n">
         <v>30</v>
@@ -1934,7 +1934,7 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35">
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E35" t="n">
         <v>31</v>
@@ -1978,7 +1978,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36">
@@ -1998,7 +1998,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E36" t="n">
         <v>32</v>
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E37" t="n">
         <v>33</v>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38">
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39">
@@ -2154,7 +2154,7 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40">
@@ -2198,7 +2198,7 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/generator/data/generated_business_variable_map.xlsx
+++ b/generator/data/generated_business_variable_map.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,11 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>sortby</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>universe</t>
         </is>
       </c>
@@ -545,7 +550,12 @@
           <t>Due to Covid-19, various factors arised that caused big disruption in tourism businesses in Nepal</t>
         </is>
       </c>
-      <c r="L2" t="n">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
         <v>112</v>
       </c>
     </row>
@@ -599,7 +609,12 @@
           <t>Around 95% businesses shut down, among them 17% will never open again</t>
         </is>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>112</v>
       </c>
     </row>
@@ -653,7 +668,12 @@
           <t>Among them around 80% were shut down for more than 6 months</t>
         </is>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>112</v>
       </c>
     </row>
@@ -707,7 +727,12 @@
           <t>Permanently stopped businesses forced without  new job or businesses</t>
         </is>
       </c>
-      <c r="L5" t="n">
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>112</v>
       </c>
     </row>
@@ -761,7 +786,12 @@
           <t>Revenues for most of the businesses is almost zero</t>
         </is>
       </c>
-      <c r="L6" t="n">
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>112</v>
       </c>
     </row>
@@ -815,7 +845,12 @@
           <t>95% businesses have less than a quarter of savings left. Among them around 85% had to burrow additional money</t>
         </is>
       </c>
-      <c r="L7" t="n">
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>112</v>
       </c>
     </row>
@@ -869,7 +904,12 @@
           <t>80% of the businesses couldn't cover their operating costs</t>
         </is>
       </c>
-      <c r="L8" t="n">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>112</v>
       </c>
     </row>
@@ -923,7 +963,12 @@
           <t>Laying off workers: As most of the business were closed, business were forced to reduce workers temporarily or permanently.</t>
         </is>
       </c>
-      <c r="L9" t="n">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>112</v>
       </c>
     </row>
@@ -977,7 +1022,12 @@
           <t>Laying off workers: Around 65% of the business has layed off more than three quarters of employees</t>
         </is>
       </c>
-      <c r="L10" t="n">
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>112</v>
       </c>
     </row>
@@ -1031,7 +1081,12 @@
           <t>Burrowing money but burrowing wasn't easy</t>
         </is>
       </c>
-      <c r="L11" t="n">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>112</v>
       </c>
     </row>
@@ -1085,7 +1140,12 @@
           <t>Liquidating assets</t>
         </is>
       </c>
-      <c r="L12" t="n">
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>112</v>
       </c>
     </row>
@@ -1139,7 +1199,12 @@
           <t>Selling equity but there were no buyers</t>
         </is>
       </c>
-      <c r="L13" t="n">
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>112</v>
       </c>
     </row>
@@ -1193,7 +1258,12 @@
           <t>Moving or closing offices/branches</t>
         </is>
       </c>
-      <c r="L14" t="n">
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>112</v>
       </c>
     </row>
@@ -1244,10 +1314,15 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Internal startegic actions</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
+          <t>Internal strategic actions</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>112</v>
       </c>
     </row>
@@ -1298,10 +1373,15 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Startegic actions with external stakeholders</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
+          <t>Strategic actions with external stakeholders</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>112</v>
       </c>
     </row>
@@ -1355,7 +1435,12 @@
           <t>Implemented health and sanitation measures</t>
         </is>
       </c>
-      <c r="L17" t="n">
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>112</v>
       </c>
     </row>
@@ -1406,10 +1491,15 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Implemented saftey measures for workers</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
+          <t>Implemented safety measures for workers</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>112</v>
       </c>
     </row>
@@ -1460,10 +1550,15 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Most pressing needs that requires asistance as reported by businesses</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
+          <t>Most pressing needs that requires assistance as reported by businesses</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>112</v>
       </c>
     </row>
@@ -1517,7 +1612,12 @@
           <t>For existing loans</t>
         </is>
       </c>
-      <c r="L20" t="n">
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>112</v>
       </c>
     </row>
@@ -1571,7 +1671,12 @@
           <t>For new loans</t>
         </is>
       </c>
-      <c r="L21" t="n">
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>112</v>
       </c>
     </row>
@@ -1625,7 +1730,12 @@
           <t>For taxes</t>
         </is>
       </c>
-      <c r="L22" t="n">
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>112</v>
       </c>
     </row>
@@ -1679,7 +1789,12 @@
           <t>For operational cost</t>
         </is>
       </c>
-      <c r="L23" t="n">
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>112</v>
       </c>
     </row>
@@ -1733,7 +1848,12 @@
           <t>For labor related issues</t>
         </is>
       </c>
-      <c r="L24" t="n">
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>112</v>
       </c>
     </row>
@@ -1787,7 +1907,12 @@
           <t>For outreach</t>
         </is>
       </c>
-      <c r="L25" t="n">
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>112</v>
       </c>
     </row>
@@ -1841,7 +1966,12 @@
           <t>Preferred source of financial support</t>
         </is>
       </c>
-      <c r="L26" t="n">
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>112</v>
       </c>
     </row>
@@ -1895,7 +2025,12 @@
           <t>Hoping on government support for recovery</t>
         </is>
       </c>
-      <c r="L27" t="n">
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>112</v>
       </c>
     </row>
@@ -1949,7 +2084,12 @@
           <t>Expected policy support form government</t>
         </is>
       </c>
-      <c r="L28" t="n">
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>112</v>
       </c>
     </row>
@@ -2000,10 +2140,15 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Goverment anounced recovery schemes, but remained out of reach</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
+          <t>Government announced recovery schemes, but remained out of reach</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>112</v>
       </c>
     </row>
@@ -2057,7 +2202,12 @@
           <t>Even if businesses knew about these schemes, they were very hard to use</t>
         </is>
       </c>
-      <c r="L30" t="n">
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>112</v>
       </c>
     </row>
@@ -2111,7 +2261,12 @@
           <t>Disruption still expected to last longer</t>
         </is>
       </c>
-      <c r="L31" t="n">
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>112</v>
       </c>
     </row>
@@ -2165,7 +2320,12 @@
           <t>There will still be major challenges to be solved even after the business resumes</t>
         </is>
       </c>
-      <c r="L32" t="n">
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>112</v>
       </c>
     </row>
@@ -2219,7 +2379,12 @@
           <t>Very low expectations on revenue generation</t>
         </is>
       </c>
-      <c r="L33" t="n">
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>112</v>
       </c>
     </row>
@@ -2273,7 +2438,12 @@
           <t>Most of the jobs will not be reopened any time soon</t>
         </is>
       </c>
-      <c r="L34" t="n">
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>112</v>
       </c>
     </row>
@@ -2319,7 +2489,12 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>112</v>
       </c>
     </row>
@@ -2365,7 +2540,12 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>112</v>
       </c>
     </row>
@@ -2411,7 +2591,12 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>112</v>
       </c>
     </row>

--- a/generator/data/generated_business_variable_map.xlsx
+++ b/generator/data/generated_business_variable_map.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="200">
   <si>
     <t>variable</t>
   </si>
@@ -52,6 +52,12 @@
     <t>sortby</t>
   </si>
   <si>
+    <t>surveyInfo</t>
+  </si>
+  <si>
+    <t>chartInfo</t>
+  </si>
+  <si>
     <t>universe</t>
   </si>
   <si>
@@ -403,34 +409,37 @@
     <t>general</t>
   </si>
   <si>
-    <t>business temporarily stopped</t>
-  </si>
-  <si>
-    <t>business that are permanently stopped</t>
-  </si>
-  <si>
-    <t>business that aren't closed permanently</t>
-  </si>
-  <si>
-    <t>business that aren't closed permanently and business that will have difficulties in paying back existing loans</t>
-  </si>
-  <si>
-    <t>business that aren't closed permanently and business that will have difficulties to acquire additional loans or funds</t>
-  </si>
-  <si>
-    <t>business that aren't closed permanently and business that will have difficulties in paying its taxes</t>
-  </si>
-  <si>
-    <t>business that aren't closed permanently and business that will have difficulties in covering its operating costs</t>
-  </si>
-  <si>
-    <t>business that aren't closed permanently and business that will most likely face labor-related issues</t>
-  </si>
-  <si>
-    <t>business that aren't closed permanently and business that will have difficulties in getting enough customers</t>
-  </si>
-  <si>
-    <t>business that aren't closed permanently and know about government schemes</t>
+    <t>businesses based in Kathmandu, Nepal</t>
+  </si>
+  <si>
+    <t>businesses based in Kathmandu, Nepal that were temporarily stopped during the pandemic</t>
+  </si>
+  <si>
+    <t>businesses based in Kathmandu, Nepal that were permanently stopped during the pandemic</t>
+  </si>
+  <si>
+    <t>businesses based in Kathmandu, Nepal that aren't closed permanently</t>
+  </si>
+  <si>
+    <t>businesses based in Kathmandu, Nepal that will have difficulties in paying back existing loans</t>
+  </si>
+  <si>
+    <t>businesses based in Kathmandu, Nepal that will have difficulties to acquire additional loans or funds</t>
+  </si>
+  <si>
+    <t>businesses based in Kathmandu, Nepal that will have difficulties in paying its taxes</t>
+  </si>
+  <si>
+    <t>businesses based in Kathmandu, Nepal that will have difficulties in covering its operating costs</t>
+  </si>
+  <si>
+    <t>businesses based in Kathmandu, Nepal that will most likely face labor-related issues</t>
+  </si>
+  <si>
+    <t>businesses based in Kathmandu, Nepal that will have difficulties in getting enough customers</t>
+  </si>
+  <si>
+    <t>businesses based in Kathmandu, Nepal that know about government schemes</t>
   </si>
   <si>
     <t>Factors that affected business operations:</t>
@@ -566,6 +575,45 @@
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>Kathmandu Living Labs/C2M2 Kathmandu – Tourism Businesses’ Survey, April/June 2021</t>
+  </si>
+  <si>
+    <t>study of 112 businesses based in Kathmandu, Nepal</t>
+  </si>
+  <si>
+    <t>study of 87 businesses based in Kathmandu, Nepal that were temporarily stopped during the pandemic</t>
+  </si>
+  <si>
+    <t>study of 19 businesses based in Kathmandu, Nepal that were permanently stopped during the pandemic</t>
+  </si>
+  <si>
+    <t>study of 112 businesses based in Kathmandu, Nepal that aren't closed permanently</t>
+  </si>
+  <si>
+    <t>study of 93 businesses based in Kathmandu, Nepal that aren't closed permanently</t>
+  </si>
+  <si>
+    <t>study of 62 businesses based in Kathmandu, Nepal that will have difficulties in paying back existing loans</t>
+  </si>
+  <si>
+    <t>study of 33 businesses based in Kathmandu, Nepal that will have difficulties to acquire additional loans or funds</t>
+  </si>
+  <si>
+    <t>study of 52 businesses based in Kathmandu, Nepal that will have difficulties in paying its taxes</t>
+  </si>
+  <si>
+    <t>study of 65 businesses based in Kathmandu, Nepal that will have difficulties in covering its operating costs</t>
+  </si>
+  <si>
+    <t>study of 27 businesses based in Kathmandu, Nepal that will most likely face labor-related issues</t>
+  </si>
+  <si>
+    <t>study of 61 businesses based in Kathmandu, Nepal that will have difficulties in getting enough customers</t>
+  </si>
+  <si>
+    <t>study of 34 businesses based in Kathmandu, Nepal that know about government schemes</t>
   </si>
 </sst>
 </file>
@@ -923,13 +971,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -969,16 +1017,22 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>112</v>
@@ -990,36 +1044,42 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L2" t="s">
-        <v>182</v>
-      </c>
-      <c r="M2">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>185</v>
+      </c>
+      <c r="M2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N2" t="s">
+        <v>188</v>
+      </c>
+      <c r="O2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>112</v>
@@ -1031,36 +1091,42 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L3" t="s">
-        <v>182</v>
-      </c>
-      <c r="M3">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>185</v>
+      </c>
+      <c r="M3" t="s">
+        <v>187</v>
+      </c>
+      <c r="N3" t="s">
+        <v>188</v>
+      </c>
+      <c r="O3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>87</v>
@@ -1072,36 +1138,42 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="J4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L4" t="s">
-        <v>183</v>
-      </c>
-      <c r="M4">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>186</v>
+      </c>
+      <c r="M4" t="s">
+        <v>187</v>
+      </c>
+      <c r="N4" t="s">
+        <v>189</v>
+      </c>
+      <c r="O4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>19</v>
@@ -1113,36 +1185,42 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L5" t="s">
-        <v>182</v>
-      </c>
-      <c r="M5">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>185</v>
+      </c>
+      <c r="M5" t="s">
+        <v>187</v>
+      </c>
+      <c r="N5" t="s">
+        <v>190</v>
+      </c>
+      <c r="O5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>112</v>
@@ -1154,36 +1232,42 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L6" t="s">
-        <v>183</v>
-      </c>
-      <c r="M6">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>186</v>
+      </c>
+      <c r="M6" t="s">
+        <v>187</v>
+      </c>
+      <c r="N6" t="s">
+        <v>188</v>
+      </c>
+      <c r="O6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D7">
         <v>112</v>
@@ -1195,36 +1279,42 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L7" t="s">
-        <v>183</v>
-      </c>
-      <c r="M7">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>186</v>
+      </c>
+      <c r="M7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N7" t="s">
+        <v>188</v>
+      </c>
+      <c r="O7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D8">
         <v>112</v>
@@ -1236,36 +1326,42 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L8" t="s">
-        <v>182</v>
-      </c>
-      <c r="M8">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>185</v>
+      </c>
+      <c r="M8" t="s">
+        <v>187</v>
+      </c>
+      <c r="N8" t="s">
+        <v>188</v>
+      </c>
+      <c r="O8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D9">
         <v>112</v>
@@ -1277,36 +1373,42 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K9" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L9" t="s">
-        <v>182</v>
-      </c>
-      <c r="M9">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>185</v>
+      </c>
+      <c r="M9" t="s">
+        <v>187</v>
+      </c>
+      <c r="N9" t="s">
+        <v>188</v>
+      </c>
+      <c r="O9">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D10">
         <v>112</v>
@@ -1318,36 +1420,42 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J10" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K10" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L10" t="s">
-        <v>183</v>
-      </c>
-      <c r="M10">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>186</v>
+      </c>
+      <c r="M10" t="s">
+        <v>187</v>
+      </c>
+      <c r="N10" t="s">
+        <v>188</v>
+      </c>
+      <c r="O10">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D11">
         <v>112</v>
@@ -1359,36 +1467,42 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K11" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L11" t="s">
-        <v>182</v>
-      </c>
-      <c r="M11">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>185</v>
+      </c>
+      <c r="M11" t="s">
+        <v>187</v>
+      </c>
+      <c r="N11" t="s">
+        <v>188</v>
+      </c>
+      <c r="O11">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D12">
         <v>112</v>
@@ -1400,36 +1514,42 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J12" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L12" t="s">
-        <v>182</v>
-      </c>
-      <c r="M12">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>185</v>
+      </c>
+      <c r="M12" t="s">
+        <v>187</v>
+      </c>
+      <c r="N12" t="s">
+        <v>188</v>
+      </c>
+      <c r="O12">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D13">
         <v>112</v>
@@ -1441,36 +1561,42 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K13" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s">
-        <v>182</v>
-      </c>
-      <c r="M13">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>185</v>
+      </c>
+      <c r="M13" t="s">
+        <v>187</v>
+      </c>
+      <c r="N13" t="s">
+        <v>188</v>
+      </c>
+      <c r="O13">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D14">
         <v>112</v>
@@ -1482,36 +1608,42 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J14" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K14" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s">
-        <v>182</v>
-      </c>
-      <c r="M14">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>185</v>
+      </c>
+      <c r="M14" t="s">
+        <v>187</v>
+      </c>
+      <c r="N14" t="s">
+        <v>188</v>
+      </c>
+      <c r="O14">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D15">
         <v>112</v>
@@ -1523,36 +1655,42 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J15" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K15" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s">
-        <v>182</v>
-      </c>
-      <c r="M15">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>185</v>
+      </c>
+      <c r="M15" t="s">
+        <v>187</v>
+      </c>
+      <c r="N15" t="s">
+        <v>191</v>
+      </c>
+      <c r="O15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D16">
         <v>112</v>
@@ -1564,36 +1702,42 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I16" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J16" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K16" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s">
-        <v>182</v>
-      </c>
-      <c r="M16">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>185</v>
+      </c>
+      <c r="M16" t="s">
+        <v>187</v>
+      </c>
+      <c r="N16" t="s">
+        <v>191</v>
+      </c>
+      <c r="O16">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D17">
         <v>112</v>
@@ -1605,36 +1749,42 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I17" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J17" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K17" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L17" t="s">
-        <v>182</v>
-      </c>
-      <c r="M17">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>185</v>
+      </c>
+      <c r="M17" t="s">
+        <v>187</v>
+      </c>
+      <c r="N17" t="s">
+        <v>191</v>
+      </c>
+      <c r="O17">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D18">
         <v>112</v>
@@ -1646,36 +1796,42 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I18" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J18" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K18" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L18" t="s">
-        <v>182</v>
-      </c>
-      <c r="M18">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>185</v>
+      </c>
+      <c r="M18" t="s">
+        <v>187</v>
+      </c>
+      <c r="N18" t="s">
+        <v>191</v>
+      </c>
+      <c r="O18">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D19">
         <v>93</v>
@@ -1687,36 +1843,42 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H19" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I19" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J19" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K19" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s">
-        <v>182</v>
-      </c>
-      <c r="M19">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>185</v>
+      </c>
+      <c r="M19" t="s">
+        <v>187</v>
+      </c>
+      <c r="N19" t="s">
+        <v>192</v>
+      </c>
+      <c r="O19">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D20">
         <v>62</v>
@@ -1728,36 +1890,42 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I20" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J20" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K20" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L20" t="s">
-        <v>182</v>
-      </c>
-      <c r="M20">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>185</v>
+      </c>
+      <c r="M20" t="s">
+        <v>187</v>
+      </c>
+      <c r="N20" t="s">
+        <v>193</v>
+      </c>
+      <c r="O20">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D21">
         <v>33</v>
@@ -1769,36 +1937,42 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H21" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I21" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J21" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K21" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L21" t="s">
-        <v>182</v>
-      </c>
-      <c r="M21">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>185</v>
+      </c>
+      <c r="M21" t="s">
+        <v>187</v>
+      </c>
+      <c r="N21" t="s">
+        <v>194</v>
+      </c>
+      <c r="O21">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D22">
         <v>52</v>
@@ -1810,36 +1984,42 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I22" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="J22" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K22" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L22" t="s">
-        <v>182</v>
-      </c>
-      <c r="M22">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>185</v>
+      </c>
+      <c r="M22" t="s">
+        <v>187</v>
+      </c>
+      <c r="N22" t="s">
+        <v>195</v>
+      </c>
+      <c r="O22">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D23">
         <v>65</v>
@@ -1851,36 +2031,42 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J23" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K23" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L23" t="s">
-        <v>182</v>
-      </c>
-      <c r="M23">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>185</v>
+      </c>
+      <c r="M23" t="s">
+        <v>187</v>
+      </c>
+      <c r="N23" t="s">
+        <v>196</v>
+      </c>
+      <c r="O23">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D24">
         <v>27</v>
@@ -1892,36 +2078,42 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H24" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I24" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J24" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K24" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L24" t="s">
-        <v>182</v>
-      </c>
-      <c r="M24">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>185</v>
+      </c>
+      <c r="M24" t="s">
+        <v>187</v>
+      </c>
+      <c r="N24" t="s">
+        <v>197</v>
+      </c>
+      <c r="O24">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D25">
         <v>61</v>
@@ -1933,36 +2125,42 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H25" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I25" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J25" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K25" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L25" t="s">
-        <v>182</v>
-      </c>
-      <c r="M25">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>185</v>
+      </c>
+      <c r="M25" t="s">
+        <v>187</v>
+      </c>
+      <c r="N25" t="s">
+        <v>198</v>
+      </c>
+      <c r="O25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D26">
         <v>33</v>
@@ -1974,36 +2172,42 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H26" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I26" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J26" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K26" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L26" t="s">
-        <v>182</v>
-      </c>
-      <c r="M26">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>185</v>
+      </c>
+      <c r="M26" t="s">
+        <v>187</v>
+      </c>
+      <c r="N26" t="s">
+        <v>194</v>
+      </c>
+      <c r="O26">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D27">
         <v>93</v>
@@ -2015,36 +2219,42 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H27" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I27" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J27" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K27" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L27" t="s">
-        <v>182</v>
-      </c>
-      <c r="M27">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>185</v>
+      </c>
+      <c r="M27" t="s">
+        <v>187</v>
+      </c>
+      <c r="N27" t="s">
+        <v>192</v>
+      </c>
+      <c r="O27">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D28">
         <v>112</v>
@@ -2056,36 +2266,42 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H28" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I28" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J28" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K28" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L28" t="s">
-        <v>182</v>
-      </c>
-      <c r="M28">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>185</v>
+      </c>
+      <c r="M28" t="s">
+        <v>187</v>
+      </c>
+      <c r="N28" t="s">
+        <v>191</v>
+      </c>
+      <c r="O28">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D29">
         <v>93</v>
@@ -2097,36 +2313,42 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H29" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I29" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J29" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K29" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L29" t="s">
-        <v>182</v>
-      </c>
-      <c r="M29">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>185</v>
+      </c>
+      <c r="M29" t="s">
+        <v>187</v>
+      </c>
+      <c r="N29" t="s">
+        <v>192</v>
+      </c>
+      <c r="O29">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D30">
         <v>34</v>
@@ -2138,36 +2360,42 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H30" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I30" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J30" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K30" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L30" t="s">
-        <v>182</v>
-      </c>
-      <c r="M30">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>185</v>
+      </c>
+      <c r="M30" t="s">
+        <v>187</v>
+      </c>
+      <c r="N30" t="s">
+        <v>199</v>
+      </c>
+      <c r="O30">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D31">
         <v>112</v>
@@ -2179,36 +2407,42 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H31" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I31" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J31" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K31" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L31" t="s">
-        <v>183</v>
-      </c>
-      <c r="M31">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>186</v>
+      </c>
+      <c r="M31" t="s">
+        <v>187</v>
+      </c>
+      <c r="N31" t="s">
+        <v>188</v>
+      </c>
+      <c r="O31">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D32">
         <v>93</v>
@@ -2220,36 +2454,42 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H32" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I32" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J32" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K32" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L32" t="s">
-        <v>182</v>
-      </c>
-      <c r="M32">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>185</v>
+      </c>
+      <c r="M32" t="s">
+        <v>187</v>
+      </c>
+      <c r="N32" t="s">
+        <v>192</v>
+      </c>
+      <c r="O32">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D33">
         <v>93</v>
@@ -2261,36 +2501,42 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H33" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I33" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J33" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K33" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L33" t="s">
-        <v>183</v>
-      </c>
-      <c r="M33">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>186</v>
+      </c>
+      <c r="M33" t="s">
+        <v>187</v>
+      </c>
+      <c r="N33" t="s">
+        <v>192</v>
+      </c>
+      <c r="O33">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D34">
         <v>93</v>
@@ -2302,36 +2548,42 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I34" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J34" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K34" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L34" t="s">
-        <v>183</v>
-      </c>
-      <c r="M34">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>186</v>
+      </c>
+      <c r="M34" t="s">
+        <v>187</v>
+      </c>
+      <c r="N34" t="s">
+        <v>192</v>
+      </c>
+      <c r="O34">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D35">
         <v>112</v>
@@ -2343,33 +2595,39 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H35" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I35" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L35" t="s">
-        <v>183</v>
-      </c>
-      <c r="M35">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>186</v>
+      </c>
+      <c r="M35" t="s">
+        <v>187</v>
+      </c>
+      <c r="N35" t="s">
+        <v>188</v>
+      </c>
+      <c r="O35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D36">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E36">
         <v>35</v>
@@ -2378,30 +2636,36 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H36" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I36" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L36" t="s">
-        <v>183</v>
-      </c>
-      <c r="M36">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>186</v>
+      </c>
+      <c r="M36" t="s">
+        <v>187</v>
+      </c>
+      <c r="N36" t="s">
+        <v>188</v>
+      </c>
+      <c r="O36">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D37">
         <v>112</v>
@@ -2413,18 +2677,24 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H37" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I37" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L37" t="s">
-        <v>183</v>
-      </c>
-      <c r="M37">
+        <v>186</v>
+      </c>
+      <c r="M37" t="s">
+        <v>187</v>
+      </c>
+      <c r="N37" t="s">
+        <v>188</v>
+      </c>
+      <c r="O37">
         <v>112</v>
       </c>
     </row>
